--- a/Digito Directo y Odenamiento Digito Letra.xlsx
+++ b/Digito Directo y Odenamiento Digito Letra.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guido\Desktop\pruebas_compr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BF2B34-D523-424E-A390-8622212E2323}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F01E00C-B945-4CBF-9C21-0A50333D9A4C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dígitos Directos" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="136">
   <si>
     <t>DÍGITOS DIRECTOS</t>
   </si>
@@ -630,6 +630,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -646,12 +652,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -937,9 +937,9 @@
   <sheetPr codeName="Hoja1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
@@ -953,22 +953,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13"/>
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="13"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
@@ -1172,7 +1172,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>15</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>16</v>
       </c>
@@ -1201,8 +1201,11 @@
       <c r="E18" s="7" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F18" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>17</v>
       </c>
@@ -1216,8 +1219,11 @@
       <c r="E19" s="7" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F19" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>18</v>
       </c>
@@ -1231,8 +1237,11 @@
       <c r="E20" s="7" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F20" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>19</v>
       </c>
@@ -1246,8 +1255,11 @@
       <c r="E21" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F21" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>20</v>
       </c>
@@ -1261,8 +1273,11 @@
       <c r="E22" s="7" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F22" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>21</v>
       </c>
@@ -1276,8 +1291,11 @@
       <c r="E23" s="7" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F23" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <v>22</v>
       </c>
@@ -1291,8 +1309,11 @@
       <c r="E24" s="7" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F24" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <v>23</v>
       </c>
@@ -1306,8 +1327,11 @@
       <c r="E25" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F25" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>24</v>
       </c>
@@ -1321,8 +1345,11 @@
       <c r="E26" s="7" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F26" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>25</v>
       </c>
@@ -1336,8 +1363,11 @@
       <c r="E27" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F27" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
         <v>26</v>
       </c>
@@ -1351,8 +1381,11 @@
       <c r="E28" s="7" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F28" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>27</v>
       </c>
@@ -1366,8 +1399,11 @@
       <c r="E29" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F29" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <v>28</v>
       </c>
@@ -1381,8 +1417,11 @@
       <c r="E30" s="7" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F30" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <v>29</v>
       </c>
@@ -1396,8 +1435,11 @@
       <c r="E31" s="7" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F31" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <v>30</v>
       </c>
@@ -1411,8 +1453,11 @@
       <c r="E32" s="7" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F32" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
         <v>31</v>
       </c>
@@ -1426,8 +1471,11 @@
       <c r="E33" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F33" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
         <v>32</v>
       </c>
@@ -1441,8 +1489,11 @@
       <c r="E34" s="7" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F34" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
         <v>33</v>
       </c>
@@ -1456,8 +1507,11 @@
       <c r="E35" s="7" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F35" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
         <v>34</v>
       </c>
@@ -1471,8 +1525,11 @@
       <c r="E36" s="7" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F36" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
         <v>35</v>
       </c>
@@ -1486,8 +1543,11 @@
       <c r="E37" s="7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F37" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
         <v>36</v>
       </c>
@@ -1501,8 +1561,11 @@
       <c r="E38" s="7" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F38" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="6">
         <v>37</v>
       </c>
@@ -1516,8 +1579,11 @@
       <c r="E39" s="7" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F39" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="6">
         <v>38</v>
       </c>
@@ -1531,8 +1597,11 @@
       <c r="E40" s="7" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F40" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="6">
         <v>39</v>
       </c>
@@ -1546,8 +1615,11 @@
       <c r="E41" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F41" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="6">
         <v>40</v>
       </c>
@@ -1561,8 +1633,11 @@
       <c r="E42" s="7" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F42" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="6">
         <v>41</v>
       </c>
@@ -1576,8 +1651,11 @@
       <c r="E43" s="7" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F43" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="6">
         <v>42</v>
       </c>
@@ -1590,17 +1668,20 @@
       <c r="E44" s="7" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F44" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E48" s="3"/>
     </row>
   </sheetData>
@@ -1619,8 +1700,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="B1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView topLeftCell="A74" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64:D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1630,7 +1711,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="3"/>
@@ -1639,7 +1720,7 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="17"/>
+      <c r="C2" s="19"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -2483,7 +2564,7 @@
         <v>78</v>
       </c>
       <c r="M3" t="str">
-        <f>_xlfn.CONCAT(H3:L3)</f>
+        <f t="shared" ref="M3:M39" si="0">_xlfn.CONCAT(H3:L3)</f>
         <v>Order(1)=  "A"</v>
       </c>
     </row>
@@ -2501,7 +2582,7 @@
         <v>78</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" ref="F4:F39" si="0">_xlfn.CONCAT(B4:E4)</f>
+        <f t="shared" ref="F4:F39" si="1">_xlfn.CONCAT(B4:E4)</f>
         <v>cuatro(2)=  ""</v>
       </c>
       <c r="H4" t="s">
@@ -2520,7 +2601,7 @@
         <v>78</v>
       </c>
       <c r="M4" t="str">
-        <f>_xlfn.CONCAT(H4:L4)</f>
+        <f t="shared" si="0"/>
         <v>Order(2)=  "B"</v>
       </c>
     </row>
@@ -2538,7 +2619,7 @@
         <v>78</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>cuatro(3)=  ""</v>
       </c>
       <c r="H5" t="s">
@@ -2557,7 +2638,7 @@
         <v>78</v>
       </c>
       <c r="M5" t="str">
-        <f>_xlfn.CONCAT(H5:L5)</f>
+        <f t="shared" si="0"/>
         <v>Order(3)=  "C"</v>
       </c>
     </row>
@@ -2575,7 +2656,7 @@
         <v>78</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>cuatro(4)=  ""</v>
       </c>
       <c r="H6" t="s">
@@ -2594,7 +2675,7 @@
         <v>78</v>
       </c>
       <c r="M6" t="str">
-        <f>_xlfn.CONCAT(H6:L6)</f>
+        <f t="shared" si="0"/>
         <v>Order(4)=  "D"</v>
       </c>
     </row>
@@ -2612,7 +2693,7 @@
         <v>78</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>cuatro(5)=  ""</v>
       </c>
       <c r="H7" t="s">
@@ -2631,7 +2712,7 @@
         <v>78</v>
       </c>
       <c r="M7" t="str">
-        <f>_xlfn.CONCAT(H7:L7)</f>
+        <f t="shared" si="0"/>
         <v>Order(5)=  "E"</v>
       </c>
     </row>
@@ -2649,7 +2730,7 @@
         <v>78</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>cuatro(6)=  ""</v>
       </c>
       <c r="H8" t="s">
@@ -2668,7 +2749,7 @@
         <v>78</v>
       </c>
       <c r="M8" t="str">
-        <f>_xlfn.CONCAT(H8:L8)</f>
+        <f t="shared" si="0"/>
         <v>Order(6)=  "F"</v>
       </c>
     </row>
@@ -2686,7 +2767,7 @@
         <v>78</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>cuatro(7)=  ""</v>
       </c>
       <c r="H9" t="s">
@@ -2705,7 +2786,7 @@
         <v>78</v>
       </c>
       <c r="M9" t="str">
-        <f>_xlfn.CONCAT(H9:L9)</f>
+        <f t="shared" si="0"/>
         <v>Order(7)=  "G"</v>
       </c>
     </row>
@@ -2723,7 +2804,7 @@
         <v>78</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>cuatro(8)=  ""</v>
       </c>
       <c r="H10" t="s">
@@ -2742,7 +2823,7 @@
         <v>78</v>
       </c>
       <c r="M10" t="str">
-        <f>_xlfn.CONCAT(H10:L10)</f>
+        <f t="shared" si="0"/>
         <v>Order(8)=  "H"</v>
       </c>
     </row>
@@ -2760,7 +2841,7 @@
         <v>78</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>cuatro(9)=  ""</v>
       </c>
       <c r="H11" t="s">
@@ -2779,7 +2860,7 @@
         <v>78</v>
       </c>
       <c r="M11" t="str">
-        <f>_xlfn.CONCAT(H11:L11)</f>
+        <f t="shared" si="0"/>
         <v>Order(9)=  "I"</v>
       </c>
     </row>
@@ -2797,7 +2878,7 @@
         <v>78</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>cuatro(10)=  ""</v>
       </c>
       <c r="H12" t="s">
@@ -2816,7 +2897,7 @@
         <v>78</v>
       </c>
       <c r="M12" t="str">
-        <f>_xlfn.CONCAT(H12:L12)</f>
+        <f t="shared" si="0"/>
         <v>Order(10)=  "J"</v>
       </c>
     </row>
@@ -2834,7 +2915,7 @@
         <v>78</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>cuatro(11)=  ""</v>
       </c>
       <c r="H13" t="s">
@@ -2853,7 +2934,7 @@
         <v>78</v>
       </c>
       <c r="M13" t="str">
-        <f>_xlfn.CONCAT(H13:L13)</f>
+        <f t="shared" si="0"/>
         <v>Order(11)=  "K"</v>
       </c>
     </row>
@@ -2871,7 +2952,7 @@
         <v>78</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>cuatro(12)=  ""</v>
       </c>
       <c r="H14" t="s">
@@ -2890,7 +2971,7 @@
         <v>78</v>
       </c>
       <c r="M14" t="str">
-        <f>_xlfn.CONCAT(H14:L14)</f>
+        <f t="shared" si="0"/>
         <v>Order(12)=  "L"</v>
       </c>
     </row>
@@ -2908,7 +2989,7 @@
         <v>78</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>cuatro(13)=  ""</v>
       </c>
       <c r="H15" t="s">
@@ -2927,7 +3008,7 @@
         <v>78</v>
       </c>
       <c r="M15" t="str">
-        <f>_xlfn.CONCAT(H15:L15)</f>
+        <f t="shared" si="0"/>
         <v>Order(13)=  "M"</v>
       </c>
     </row>
@@ -2945,7 +3026,7 @@
         <v>78</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>cuatro(14)=  ""</v>
       </c>
       <c r="H16" t="s">
@@ -2964,7 +3045,7 @@
         <v>78</v>
       </c>
       <c r="M16" t="str">
-        <f>_xlfn.CONCAT(H16:L16)</f>
+        <f t="shared" si="0"/>
         <v>Order(14)=  "N"</v>
       </c>
     </row>
@@ -2982,7 +3063,7 @@
         <v>78</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>cuatro(15)=  ""</v>
       </c>
       <c r="H17" t="s">
@@ -3001,7 +3082,7 @@
         <v>78</v>
       </c>
       <c r="M17" t="str">
-        <f>_xlfn.CONCAT(H17:L17)</f>
+        <f t="shared" si="0"/>
         <v>Order(15)=  "Ñ"</v>
       </c>
     </row>
@@ -3019,7 +3100,7 @@
         <v>78</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>cuatro(16)=  ""</v>
       </c>
       <c r="H18" t="s">
@@ -3038,7 +3119,7 @@
         <v>78</v>
       </c>
       <c r="M18" t="str">
-        <f>_xlfn.CONCAT(H18:L18)</f>
+        <f t="shared" si="0"/>
         <v>Order(16)=  "O"</v>
       </c>
     </row>
@@ -3056,7 +3137,7 @@
         <v>78</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>cuatro(17)=  ""</v>
       </c>
       <c r="H19" t="s">
@@ -3075,7 +3156,7 @@
         <v>78</v>
       </c>
       <c r="M19" t="str">
-        <f>_xlfn.CONCAT(H19:L19)</f>
+        <f t="shared" si="0"/>
         <v>Order(17)=  "P"</v>
       </c>
     </row>
@@ -3093,7 +3174,7 @@
         <v>78</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>cuatro(18)=  ""</v>
       </c>
       <c r="H20" t="s">
@@ -3112,7 +3193,7 @@
         <v>78</v>
       </c>
       <c r="M20" t="str">
-        <f>_xlfn.CONCAT(H20:L20)</f>
+        <f t="shared" si="0"/>
         <v>Order(18)=  "Q"</v>
       </c>
     </row>
@@ -3130,7 +3211,7 @@
         <v>78</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>cuatro(19)=  ""</v>
       </c>
       <c r="H21" t="s">
@@ -3149,7 +3230,7 @@
         <v>78</v>
       </c>
       <c r="M21" t="str">
-        <f>_xlfn.CONCAT(H21:L21)</f>
+        <f t="shared" si="0"/>
         <v>Order(19)=  "R"</v>
       </c>
     </row>
@@ -3167,7 +3248,7 @@
         <v>78</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>cuatro(20)=  ""</v>
       </c>
       <c r="H22" t="s">
@@ -3186,7 +3267,7 @@
         <v>78</v>
       </c>
       <c r="M22" t="str">
-        <f>_xlfn.CONCAT(H22:L22)</f>
+        <f t="shared" si="0"/>
         <v>Order(20)=  "S"</v>
       </c>
     </row>
@@ -3204,7 +3285,7 @@
         <v>78</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>cuatro(21)=  ""</v>
       </c>
       <c r="H23" t="s">
@@ -3223,7 +3304,7 @@
         <v>78</v>
       </c>
       <c r="M23" t="str">
-        <f>_xlfn.CONCAT(H23:L23)</f>
+        <f t="shared" si="0"/>
         <v>Order(21)=  "T"</v>
       </c>
     </row>
@@ -3241,7 +3322,7 @@
         <v>78</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>cuatro(22)=  ""</v>
       </c>
       <c r="H24" t="s">
@@ -3260,7 +3341,7 @@
         <v>78</v>
       </c>
       <c r="M24" t="str">
-        <f>_xlfn.CONCAT(H24:L24)</f>
+        <f t="shared" si="0"/>
         <v>Order(22)=  "U"</v>
       </c>
     </row>
@@ -3278,7 +3359,7 @@
         <v>78</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>cuatro(23)=  ""</v>
       </c>
       <c r="H25" t="s">
@@ -3297,7 +3378,7 @@
         <v>78</v>
       </c>
       <c r="M25" t="str">
-        <f>_xlfn.CONCAT(H25:L25)</f>
+        <f t="shared" si="0"/>
         <v>Order(23)=  "V"</v>
       </c>
     </row>
@@ -3315,7 +3396,7 @@
         <v>78</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>cuatro(24)=  ""</v>
       </c>
       <c r="H26" t="s">
@@ -3334,7 +3415,7 @@
         <v>78</v>
       </c>
       <c r="M26" t="str">
-        <f>_xlfn.CONCAT(H26:L26)</f>
+        <f t="shared" si="0"/>
         <v>Order(24)=  "W"</v>
       </c>
     </row>
@@ -3352,7 +3433,7 @@
         <v>78</v>
       </c>
       <c r="F27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>cuatro(25)=  ""</v>
       </c>
       <c r="H27" t="s">
@@ -3371,7 +3452,7 @@
         <v>78</v>
       </c>
       <c r="M27" t="str">
-        <f>_xlfn.CONCAT(H27:L27)</f>
+        <f t="shared" si="0"/>
         <v>Order(25)=  "X"</v>
       </c>
     </row>
@@ -3389,7 +3470,7 @@
         <v>78</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>cuatro(26)=  ""</v>
       </c>
       <c r="H28" t="s">
@@ -3408,7 +3489,7 @@
         <v>78</v>
       </c>
       <c r="M28" t="str">
-        <f>_xlfn.CONCAT(H28:L28)</f>
+        <f t="shared" si="0"/>
         <v>Order(26)=  "Y"</v>
       </c>
     </row>
@@ -3426,7 +3507,7 @@
         <v>78</v>
       </c>
       <c r="F29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>cuatro(27)=  ""</v>
       </c>
       <c r="H29" t="s">
@@ -3445,7 +3526,7 @@
         <v>78</v>
       </c>
       <c r="M29" t="str">
-        <f>_xlfn.CONCAT(H29:L29)</f>
+        <f t="shared" si="0"/>
         <v>Order(27)=  "Z"</v>
       </c>
     </row>
@@ -3463,7 +3544,7 @@
         <v>78</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>cuatro(28)=  ""</v>
       </c>
       <c r="H30" t="s">
@@ -3482,7 +3563,7 @@
         <v>78</v>
       </c>
       <c r="M30" t="str">
-        <f>_xlfn.CONCAT(H30:L30)</f>
+        <f t="shared" si="0"/>
         <v>Order(28)=  "0"</v>
       </c>
     </row>
@@ -3500,7 +3581,7 @@
         <v>78</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>cuatro(29)=  ""</v>
       </c>
       <c r="H31" t="s">
@@ -3519,7 +3600,7 @@
         <v>78</v>
       </c>
       <c r="M31" t="str">
-        <f>_xlfn.CONCAT(H31:L31)</f>
+        <f t="shared" si="0"/>
         <v>Order(29)=  "1"</v>
       </c>
     </row>
@@ -3537,7 +3618,7 @@
         <v>78</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>cuatro(30)=  ""</v>
       </c>
       <c r="H32" t="s">
@@ -3556,7 +3637,7 @@
         <v>78</v>
       </c>
       <c r="M32" t="str">
-        <f>_xlfn.CONCAT(H32:L32)</f>
+        <f t="shared" si="0"/>
         <v>Order(30)=  "2"</v>
       </c>
     </row>
@@ -3574,7 +3655,7 @@
         <v>78</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>cuatro(31)=  ""</v>
       </c>
       <c r="H33" t="s">
@@ -3593,7 +3674,7 @@
         <v>78</v>
       </c>
       <c r="M33" t="str">
-        <f>_xlfn.CONCAT(H33:L33)</f>
+        <f t="shared" si="0"/>
         <v>Order(31)=  "3"</v>
       </c>
     </row>
@@ -3611,7 +3692,7 @@
         <v>78</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>cuatro(32)=  ""</v>
       </c>
       <c r="H34" t="s">
@@ -3630,7 +3711,7 @@
         <v>78</v>
       </c>
       <c r="M34" t="str">
-        <f>_xlfn.CONCAT(H34:L34)</f>
+        <f t="shared" si="0"/>
         <v>Order(32)=  "4"</v>
       </c>
     </row>
@@ -3648,7 +3729,7 @@
         <v>78</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>cuatro(33)=  ""</v>
       </c>
       <c r="H35" t="s">
@@ -3667,7 +3748,7 @@
         <v>78</v>
       </c>
       <c r="M35" t="str">
-        <f>_xlfn.CONCAT(H35:L35)</f>
+        <f t="shared" si="0"/>
         <v>Order(33)=  "5"</v>
       </c>
     </row>
@@ -3685,7 +3766,7 @@
         <v>78</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>cuatro(34)=  ""</v>
       </c>
       <c r="H36" t="s">
@@ -3704,7 +3785,7 @@
         <v>78</v>
       </c>
       <c r="M36" t="str">
-        <f>_xlfn.CONCAT(H36:L36)</f>
+        <f t="shared" si="0"/>
         <v>Order(34)=  "6"</v>
       </c>
     </row>
@@ -3722,7 +3803,7 @@
         <v>78</v>
       </c>
       <c r="F37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>cuatro(35)=  ""</v>
       </c>
       <c r="H37" t="s">
@@ -3741,7 +3822,7 @@
         <v>78</v>
       </c>
       <c r="M37" t="str">
-        <f>_xlfn.CONCAT(H37:L37)</f>
+        <f t="shared" si="0"/>
         <v>Order(35)=  "7"</v>
       </c>
     </row>
@@ -3759,7 +3840,7 @@
         <v>78</v>
       </c>
       <c r="F38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>cuatro(36)=  ""</v>
       </c>
       <c r="H38" t="s">
@@ -3778,7 +3859,7 @@
         <v>78</v>
       </c>
       <c r="M38" t="str">
-        <f>_xlfn.CONCAT(H38:L38)</f>
+        <f t="shared" si="0"/>
         <v>Order(36)=  "8"</v>
       </c>
     </row>
@@ -3796,7 +3877,7 @@
         <v>78</v>
       </c>
       <c r="F39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>cuatro(37)=  ""</v>
       </c>
       <c r="H39" t="s">
@@ -3815,7 +3896,7 @@
         <v>78</v>
       </c>
       <c r="M39" t="str">
-        <f>_xlfn.CONCAT(H39:L39)</f>
+        <f t="shared" si="0"/>
         <v>Order(37)=  "9"</v>
       </c>
     </row>
@@ -3833,66 +3914,66 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:DS43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="DS6" sqref="DS6:DS32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="8" width="4.36328125" customWidth="1"/>
-    <col min="9" max="35" width="2.90625" style="2" hidden="1" customWidth="1"/>
-    <col min="36" max="45" width="1.90625" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="4.90625" hidden="1" customWidth="1"/>
-    <col min="47" max="47" width="2" hidden="1" customWidth="1"/>
-    <col min="48" max="49" width="1.90625" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="2.08984375" hidden="1" customWidth="1"/>
-    <col min="51" max="51" width="1.81640625" hidden="1" customWidth="1"/>
-    <col min="52" max="52" width="1.7265625" hidden="1" customWidth="1"/>
-    <col min="53" max="54" width="2.08984375" hidden="1" customWidth="1"/>
-    <col min="55" max="55" width="1.36328125" hidden="1" customWidth="1"/>
-    <col min="56" max="56" width="1.453125" hidden="1" customWidth="1"/>
-    <col min="57" max="57" width="1.81640625" hidden="1" customWidth="1"/>
-    <col min="58" max="58" width="1.6328125" hidden="1" customWidth="1"/>
-    <col min="59" max="59" width="2.54296875" hidden="1" customWidth="1"/>
-    <col min="60" max="61" width="2.08984375" hidden="1" customWidth="1"/>
-    <col min="62" max="62" width="2.1796875" hidden="1" customWidth="1"/>
-    <col min="63" max="63" width="1.81640625" hidden="1" customWidth="1"/>
-    <col min="64" max="64" width="2.1796875" hidden="1" customWidth="1"/>
-    <col min="65" max="65" width="1.90625" hidden="1" customWidth="1"/>
-    <col min="66" max="66" width="1.7265625" hidden="1" customWidth="1"/>
-    <col min="67" max="67" width="1.81640625" hidden="1" customWidth="1"/>
-    <col min="68" max="68" width="2.08984375" hidden="1" customWidth="1"/>
-    <col min="69" max="69" width="1.90625" hidden="1" customWidth="1"/>
-    <col min="70" max="70" width="2.6328125" hidden="1" customWidth="1"/>
-    <col min="71" max="72" width="1.81640625" hidden="1" customWidth="1"/>
-    <col min="73" max="73" width="1.7265625" hidden="1" customWidth="1"/>
-    <col min="74" max="83" width="1.81640625" hidden="1" customWidth="1"/>
-    <col min="84" max="84" width="0" hidden="1" customWidth="1"/>
-    <col min="85" max="85" width="2" hidden="1" customWidth="1"/>
-    <col min="86" max="87" width="1.90625" hidden="1" customWidth="1"/>
-    <col min="88" max="88" width="2.08984375" hidden="1" customWidth="1"/>
-    <col min="89" max="89" width="1.81640625" hidden="1" customWidth="1"/>
-    <col min="90" max="90" width="1.7265625" hidden="1" customWidth="1"/>
-    <col min="91" max="92" width="2.08984375" hidden="1" customWidth="1"/>
-    <col min="93" max="93" width="1.36328125" hidden="1" customWidth="1"/>
-    <col min="94" max="94" width="1.453125" hidden="1" customWidth="1"/>
-    <col min="95" max="95" width="1.81640625" hidden="1" customWidth="1"/>
-    <col min="96" max="96" width="1.6328125" hidden="1" customWidth="1"/>
-    <col min="97" max="97" width="2.54296875" hidden="1" customWidth="1"/>
-    <col min="98" max="99" width="2.08984375" hidden="1" customWidth="1"/>
-    <col min="100" max="100" width="2.1796875" hidden="1" customWidth="1"/>
-    <col min="101" max="101" width="1.81640625" hidden="1" customWidth="1"/>
-    <col min="102" max="102" width="2.1796875" hidden="1" customWidth="1"/>
-    <col min="103" max="103" width="1.90625" hidden="1" customWidth="1"/>
-    <col min="104" max="104" width="1.7265625" hidden="1" customWidth="1"/>
-    <col min="105" max="105" width="1.81640625" hidden="1" customWidth="1"/>
-    <col min="106" max="106" width="2.08984375" hidden="1" customWidth="1"/>
-    <col min="107" max="107" width="1.90625" hidden="1" customWidth="1"/>
-    <col min="108" max="108" width="2.6328125" hidden="1" customWidth="1"/>
-    <col min="109" max="110" width="1.81640625" hidden="1" customWidth="1"/>
-    <col min="111" max="111" width="1.7265625" hidden="1" customWidth="1"/>
-    <col min="112" max="121" width="1.81640625" hidden="1" customWidth="1"/>
-    <col min="122" max="122" width="0" hidden="1" customWidth="1"/>
+    <col min="9" max="35" width="2.90625" style="2" customWidth="1"/>
+    <col min="36" max="45" width="1.90625" customWidth="1"/>
+    <col min="46" max="46" width="4.90625" customWidth="1"/>
+    <col min="47" max="47" width="2" customWidth="1"/>
+    <col min="48" max="49" width="1.90625" customWidth="1"/>
+    <col min="50" max="50" width="2.08984375" customWidth="1"/>
+    <col min="51" max="51" width="1.81640625" customWidth="1"/>
+    <col min="52" max="52" width="1.7265625" customWidth="1"/>
+    <col min="53" max="54" width="2.08984375" customWidth="1"/>
+    <col min="55" max="55" width="1.36328125" customWidth="1"/>
+    <col min="56" max="56" width="1.453125" customWidth="1"/>
+    <col min="57" max="57" width="1.81640625" customWidth="1"/>
+    <col min="58" max="58" width="1.6328125" customWidth="1"/>
+    <col min="59" max="59" width="2.54296875" customWidth="1"/>
+    <col min="60" max="61" width="2.08984375" customWidth="1"/>
+    <col min="62" max="62" width="2.1796875" customWidth="1"/>
+    <col min="63" max="63" width="1.81640625" customWidth="1"/>
+    <col min="64" max="64" width="2.1796875" customWidth="1"/>
+    <col min="65" max="65" width="1.90625" customWidth="1"/>
+    <col min="66" max="66" width="1.7265625" customWidth="1"/>
+    <col min="67" max="67" width="1.81640625" customWidth="1"/>
+    <col min="68" max="68" width="2.08984375" customWidth="1"/>
+    <col min="69" max="69" width="1.90625" customWidth="1"/>
+    <col min="70" max="70" width="2.6328125" customWidth="1"/>
+    <col min="71" max="72" width="1.81640625" customWidth="1"/>
+    <col min="73" max="73" width="1.7265625" customWidth="1"/>
+    <col min="74" max="83" width="1.81640625" customWidth="1"/>
+    <col min="84" max="84" width="10.90625" customWidth="1"/>
+    <col min="85" max="85" width="2" customWidth="1"/>
+    <col min="86" max="87" width="1.90625" customWidth="1"/>
+    <col min="88" max="88" width="2.08984375" customWidth="1"/>
+    <col min="89" max="89" width="1.81640625" customWidth="1"/>
+    <col min="90" max="90" width="1.7265625" customWidth="1"/>
+    <col min="91" max="92" width="2.08984375" customWidth="1"/>
+    <col min="93" max="93" width="1.36328125" customWidth="1"/>
+    <col min="94" max="94" width="1.453125" customWidth="1"/>
+    <col min="95" max="95" width="1.81640625" customWidth="1"/>
+    <col min="96" max="96" width="1.6328125" customWidth="1"/>
+    <col min="97" max="97" width="2.54296875" customWidth="1"/>
+    <col min="98" max="99" width="2.08984375" customWidth="1"/>
+    <col min="100" max="100" width="2.1796875" customWidth="1"/>
+    <col min="101" max="101" width="1.81640625" customWidth="1"/>
+    <col min="102" max="102" width="2.1796875" customWidth="1"/>
+    <col min="103" max="103" width="1.90625" customWidth="1"/>
+    <col min="104" max="104" width="1.7265625" customWidth="1"/>
+    <col min="105" max="105" width="1.81640625" customWidth="1"/>
+    <col min="106" max="106" width="2.08984375" customWidth="1"/>
+    <col min="107" max="107" width="1.90625" customWidth="1"/>
+    <col min="108" max="108" width="2.6328125" customWidth="1"/>
+    <col min="109" max="110" width="1.81640625" customWidth="1"/>
+    <col min="111" max="111" width="1.7265625" customWidth="1"/>
+    <col min="112" max="121" width="1.81640625" customWidth="1"/>
+    <col min="122" max="122" width="10.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:123" x14ac:dyDescent="0.35">
@@ -3989,34 +4070,34 @@
       <c r="AI5" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AJ5" s="18">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="18">
+      <c r="AJ5" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="12">
         <v>1</v>
       </c>
-      <c r="AL5" s="18">
+      <c r="AL5" s="12">
         <v>2</v>
       </c>
-      <c r="AM5" s="18">
+      <c r="AM5" s="12">
         <v>3</v>
       </c>
-      <c r="AN5" s="18">
+      <c r="AN5" s="12">
         <v>4</v>
       </c>
-      <c r="AO5" s="18">
+      <c r="AO5" s="12">
         <v>5</v>
       </c>
-      <c r="AP5" s="18">
+      <c r="AP5" s="12">
         <v>6</v>
       </c>
-      <c r="AQ5" s="18">
+      <c r="AQ5" s="12">
         <v>7</v>
       </c>
-      <c r="AR5" s="18">
+      <c r="AR5" s="12">
         <v>8</v>
       </c>
-      <c r="AS5" s="18">
+      <c r="AS5" s="12">
         <v>9</v>
       </c>
       <c r="AU5" s="3" t="s">
@@ -4100,34 +4181,34 @@
       <c r="BU5" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="BV5" s="18">
-        <v>0</v>
-      </c>
-      <c r="BW5" s="18">
+      <c r="BV5" s="12">
+        <v>0</v>
+      </c>
+      <c r="BW5" s="12">
         <v>1</v>
       </c>
-      <c r="BX5" s="18">
+      <c r="BX5" s="12">
         <v>2</v>
       </c>
-      <c r="BY5" s="18">
+      <c r="BY5" s="12">
         <v>3</v>
       </c>
-      <c r="BZ5" s="18">
+      <c r="BZ5" s="12">
         <v>4</v>
       </c>
-      <c r="CA5" s="18">
+      <c r="CA5" s="12">
         <v>5</v>
       </c>
-      <c r="CB5" s="18">
+      <c r="CB5" s="12">
         <v>6</v>
       </c>
-      <c r="CC5" s="18">
+      <c r="CC5" s="12">
         <v>7</v>
       </c>
-      <c r="CD5" s="18">
+      <c r="CD5" s="12">
         <v>8</v>
       </c>
-      <c r="CE5" s="18">
+      <c r="CE5" s="12">
         <v>9</v>
       </c>
       <c r="CG5" s="3" t="s">
@@ -4211,34 +4292,34 @@
       <c r="DG5" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="DH5" s="18">
-        <v>0</v>
-      </c>
-      <c r="DI5" s="18">
+      <c r="DH5" s="12">
+        <v>0</v>
+      </c>
+      <c r="DI5" s="12">
         <v>1</v>
       </c>
-      <c r="DJ5" s="18">
+      <c r="DJ5" s="12">
         <v>2</v>
       </c>
-      <c r="DK5" s="18">
+      <c r="DK5" s="12">
         <v>3</v>
       </c>
-      <c r="DL5" s="18">
+      <c r="DL5" s="12">
         <v>4</v>
       </c>
-      <c r="DM5" s="18">
+      <c r="DM5" s="12">
         <v>5</v>
       </c>
-      <c r="DN5" s="18">
+      <c r="DN5" s="12">
         <v>6</v>
       </c>
-      <c r="DO5" s="18">
+      <c r="DO5" s="12">
         <v>7</v>
       </c>
-      <c r="DP5" s="18">
+      <c r="DP5" s="12">
         <v>8</v>
       </c>
-      <c r="DQ5" s="18">
+      <c r="DQ5" s="12">
         <v>9</v>
       </c>
     </row>
@@ -4563,115 +4644,115 @@
         <f>IF(AS6=1,CE$5,"")</f>
         <v/>
       </c>
-      <c r="CG6" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CH6" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CI6" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CJ6" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CK6" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CL6" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CM6" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CN6" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CO6" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CP6" s="19" t="s">
+      <c r="CG6" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH6" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CI6" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CJ6" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CK6" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CL6" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CM6" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CN6" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CO6" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CP6" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="CQ6" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CR6" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CS6" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CT6" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CU6" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CV6" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CW6" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CX6" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CY6" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CZ6" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DA6" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DB6" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DC6" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DD6" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DE6" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DF6" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG6" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DH6" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DI6" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DJ6" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DK6" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DL6" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DM6" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DN6" s="19">
+      <c r="CQ6" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CR6" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CS6" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CT6" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CU6" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CV6" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CW6" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CX6" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CY6" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CZ6" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DA6" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DB6" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DC6" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DD6" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DE6" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF6" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG6" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DH6" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DI6" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DJ6" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DK6" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DL6" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DM6" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DN6" s="13">
         <v>6</v>
       </c>
-      <c r="DO6" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DP6" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DQ6" s="19" t="s">
+      <c r="DO6" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DP6" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DQ6" s="13" t="s">
         <v>108</v>
       </c>
       <c r="DS6" t="str">
@@ -5000,115 +5081,115 @@
         <f t="shared" ref="CE7:CE32" si="39">IF(AS7=1,CE$5,"")</f>
         <v/>
       </c>
-      <c r="CG7" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CH7" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CI7" s="19" t="s">
+      <c r="CG7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CI7" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="CJ7" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CK7" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CL7" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CM7" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CN7" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CO7" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CP7" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CQ7" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CR7" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CS7" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CT7" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CU7" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CV7" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CW7" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CX7" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CY7" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CZ7" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DA7" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DB7" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DC7" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DD7" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DE7" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DF7" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG7" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DH7" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DI7" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DJ7" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DK7" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DL7" s="19">
+      <c r="CJ7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CK7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CL7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CM7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CN7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CO7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CP7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CQ7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CR7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CS7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CT7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CU7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CV7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CW7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CX7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CY7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CZ7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DA7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DB7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DC7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DD7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DE7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DH7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DI7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DJ7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DK7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DL7" s="13">
         <v>4</v>
       </c>
-      <c r="DM7" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DN7" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DO7" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DP7" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DQ7" s="19" t="s">
+      <c r="DM7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DN7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DO7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DP7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DQ7" s="13" t="s">
         <v>108</v>
       </c>
       <c r="DS7" t="str">
@@ -5437,115 +5518,115 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="CG8" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CH8" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CI8" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CJ8" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CK8" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CL8" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CM8" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CN8" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CO8" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CP8" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CQ8" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CR8" s="19" t="s">
+      <c r="CG8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CI8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CJ8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CK8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CL8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CM8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CN8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CO8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CP8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CQ8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CR8" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="CS8" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CT8" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CU8" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CV8" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CW8" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CX8" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CY8" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CZ8" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DA8" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DB8" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DC8" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DD8" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DE8" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DF8" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG8" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DH8" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DI8" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DJ8" s="19">
+      <c r="CS8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CT8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CU8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CV8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CW8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CX8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CY8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CZ8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DA8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DB8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DC8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DD8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DE8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DH8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DI8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DJ8" s="13">
         <v>2</v>
       </c>
-      <c r="DK8" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DL8" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DM8" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DN8" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DO8" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DP8" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DQ8" s="19" t="s">
+      <c r="DK8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DL8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DM8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DN8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DO8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DP8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DQ8" s="13" t="s">
         <v>108</v>
       </c>
       <c r="DS8" t="str">
@@ -5874,115 +5955,115 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="CG9" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CH9" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CI9" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CJ9" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CK9" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CL9" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CM9" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CN9" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CO9" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CP9" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CQ9" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CR9" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CS9" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CT9" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CU9" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CV9" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CW9" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CX9" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CY9" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CZ9" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DA9" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DB9" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DC9" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DD9" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DE9" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DF9" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG9" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DH9" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DI9" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DJ9" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DK9" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DL9" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DM9" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DN9" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DO9" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DP9" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DQ9" s="19" t="s">
+      <c r="CG9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CI9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CJ9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CK9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CL9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CM9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CN9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CO9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CP9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CQ9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CR9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CS9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CT9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CU9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CV9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CW9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CX9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CY9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CZ9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DA9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DB9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DC9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DD9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DE9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DH9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DI9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DJ9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DK9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DL9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DM9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DN9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DO9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DP9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DQ9" s="13" t="s">
         <v>108</v>
       </c>
       <c r="DS9" t="str">
@@ -6311,115 +6392,115 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="CG10" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CH10" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CI10" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CJ10" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CK10" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CL10" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CM10" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CN10" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CO10" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CP10" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CQ10" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CR10" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CS10" s="19" t="s">
+      <c r="CG10" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH10" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CI10" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CJ10" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CK10" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CL10" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CM10" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CN10" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CO10" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CP10" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CQ10" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CR10" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CS10" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="CT10" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CU10" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CV10" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CW10" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CX10" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CY10" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CZ10" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DA10" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DB10" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DC10" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DD10" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DE10" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DF10" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG10" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DH10" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DI10" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DJ10" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DK10" s="19">
+      <c r="CT10" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CU10" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CV10" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CW10" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CX10" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CY10" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CZ10" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DA10" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DB10" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DC10" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DD10" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DE10" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF10" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG10" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DH10" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DI10" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DJ10" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DK10" s="13">
         <v>3</v>
       </c>
-      <c r="DL10" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DM10" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DN10" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DO10" s="19">
+      <c r="DL10" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DM10" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DN10" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DO10" s="13">
         <v>7</v>
       </c>
-      <c r="DP10" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DQ10" s="19" t="s">
+      <c r="DP10" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DQ10" s="13" t="s">
         <v>108</v>
       </c>
       <c r="DS10" t="str">
@@ -6748,115 +6829,115 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="CG11" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CH11" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CI11" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CJ11" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CK11" s="19" t="s">
+      <c r="CG11" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH11" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CI11" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CJ11" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CK11" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="CL11" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CM11" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CN11" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CO11" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CP11" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CQ11" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CR11" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CS11" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CT11" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CU11" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CV11" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CW11" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CX11" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CY11" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CZ11" s="19" t="s">
+      <c r="CL11" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CM11" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CN11" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CO11" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CP11" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CQ11" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CR11" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CS11" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CT11" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CU11" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CV11" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CW11" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CX11" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CY11" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CZ11" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="DA11" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DB11" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DC11" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DD11" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DE11" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DF11" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG11" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DH11" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DI11" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DJ11" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DK11" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DL11" s="19">
+      <c r="DA11" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DB11" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DC11" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DD11" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DE11" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF11" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG11" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DH11" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DI11" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DJ11" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DK11" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DL11" s="13">
         <v>4</v>
       </c>
-      <c r="DM11" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DN11" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DO11" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DP11" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DQ11" s="19" t="s">
+      <c r="DM11" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DN11" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DO11" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DP11" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DQ11" s="13" t="s">
         <v>108</v>
       </c>
       <c r="DS11" t="str">
@@ -7185,115 +7266,115 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="CG12" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CH12" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CI12" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CJ12" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CK12" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CL12" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CM12" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CN12" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CO12" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CP12" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CQ12" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CR12" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CS12" s="19" t="s">
+      <c r="CG12" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH12" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CI12" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CJ12" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CK12" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CL12" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CM12" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CN12" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CO12" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CP12" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CQ12" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CR12" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CS12" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="CT12" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CU12" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CV12" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CW12" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CX12" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CY12" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CZ12" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DA12" s="19" t="s">
+      <c r="CT12" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CU12" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CV12" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CW12" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CX12" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CY12" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CZ12" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DA12" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="DB12" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DC12" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DD12" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DE12" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DF12" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG12" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DH12" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DI12" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DJ12" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DK12" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DL12" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DM12" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DN12" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DO12" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DP12" s="19">
+      <c r="DB12" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DC12" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DD12" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DE12" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF12" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG12" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DH12" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DI12" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DJ12" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DK12" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DL12" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DM12" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DN12" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DO12" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DP12" s="13">
         <v>8</v>
       </c>
-      <c r="DQ12" s="19" t="s">
+      <c r="DQ12" s="13" t="s">
         <v>108</v>
       </c>
       <c r="DS12" t="str">
@@ -7343,7 +7424,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="3">
-        <f t="shared" ref="M13:AB32" si="41">COUNTIF($A13:$H13,M$5)</f>
+        <f t="shared" ref="M13:AB13" si="41">COUNTIF($A13:$H13,M$5)</f>
         <v>0</v>
       </c>
       <c r="N13" s="3">
@@ -7407,7 +7488,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3">
-        <f t="shared" ref="AC13:AR32" si="42">COUNTIF($A13:$H13,AC$5)</f>
+        <f t="shared" ref="AC13:AR13" si="42">COUNTIF($A13:$H13,AC$5)</f>
         <v>0</v>
       </c>
       <c r="AD13" s="3">
@@ -7471,7 +7552,7 @@
         <v>0</v>
       </c>
       <c r="AS13" s="3">
-        <f t="shared" ref="J13:AS32" si="43">COUNTIF($A13:$H13,AS$5)</f>
+        <f t="shared" ref="J13:AS21" si="43">COUNTIF($A13:$H13,AS$5)</f>
         <v>0</v>
       </c>
       <c r="AU13" s="3" t="str">
@@ -7622,115 +7703,115 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="CG13" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CH13" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CI13" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CJ13" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CK13" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CL13" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CM13" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CN13" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CO13" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CP13" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CQ13" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CR13" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CS13" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CT13" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CU13" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CV13" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CW13" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CX13" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CY13" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CZ13" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DA13" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DB13" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DC13" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DD13" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DE13" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DF13" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG13" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DH13" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DI13" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DJ13" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DK13" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DL13" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DM13" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DN13" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DO13" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DP13" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DQ13" s="19" t="s">
+      <c r="CG13" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH13" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CI13" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CJ13" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CK13" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CL13" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CM13" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CN13" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CO13" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CP13" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CQ13" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CR13" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CS13" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CT13" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CU13" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CV13" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CW13" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CX13" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CY13" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CZ13" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DA13" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DB13" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DC13" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DD13" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DE13" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF13" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG13" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DH13" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DI13" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DJ13" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DK13" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DL13" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DM13" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DN13" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DO13" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DP13" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DQ13" s="13" t="s">
         <v>108</v>
       </c>
       <c r="DS13" t="str">
@@ -8059,115 +8140,115 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="CG14" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CH14" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CI14" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CJ14" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CK14" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CL14" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CM14" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CN14" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CO14" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CP14" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CQ14" s="19" t="s">
+      <c r="CG14" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH14" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CI14" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CJ14" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CK14" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CL14" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CM14" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CN14" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CO14" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CP14" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CQ14" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="CR14" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CS14" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CT14" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CU14" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CV14" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CW14" s="19" t="s">
+      <c r="CR14" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CS14" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CT14" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CU14" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CV14" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CW14" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="CX14" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CY14" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CZ14" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DA14" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DB14" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DC14" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DD14" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DE14" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DF14" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG14" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DH14" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DI14" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DJ14" s="19">
+      <c r="CX14" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CY14" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CZ14" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DA14" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DB14" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DC14" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DD14" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DE14" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF14" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG14" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DH14" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DI14" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DJ14" s="13">
         <v>2</v>
       </c>
-      <c r="DK14" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DL14" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DM14" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DN14" s="19">
+      <c r="DK14" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DL14" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DM14" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DN14" s="13">
         <v>6</v>
       </c>
-      <c r="DO14" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DP14" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DQ14" s="19" t="s">
+      <c r="DO14" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DP14" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DQ14" s="13" t="s">
         <v>108</v>
       </c>
       <c r="DS14" t="str">
@@ -8496,115 +8577,115 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="CG15" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CH15" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CI15" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CJ15" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CK15" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CL15" s="19" t="s">
+      <c r="CG15" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH15" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CI15" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CJ15" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CK15" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CL15" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="CM15" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CN15" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CO15" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CP15" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CQ15" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CR15" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CS15" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CT15" s="19" t="s">
+      <c r="CM15" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CN15" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CO15" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CP15" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CQ15" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CR15" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CS15" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CT15" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="CU15" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CV15" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CW15" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CX15" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CY15" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CZ15" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DA15" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DB15" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DC15" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DD15" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DE15" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DF15" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG15" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DH15" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DI15" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DJ15" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DK15" s="19">
+      <c r="CU15" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CV15" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CW15" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CX15" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CY15" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CZ15" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DA15" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DB15" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DC15" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DD15" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DE15" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF15" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG15" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DH15" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DI15" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DJ15" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DK15" s="13">
         <v>3</v>
       </c>
-      <c r="DL15" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DM15" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DN15" s="19">
+      <c r="DL15" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DM15" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DN15" s="13">
         <v>6</v>
       </c>
-      <c r="DO15" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DP15" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DQ15" s="19" t="s">
+      <c r="DO15" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DP15" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DQ15" s="13" t="s">
         <v>108</v>
       </c>
       <c r="DS15" t="str">
@@ -8933,115 +9014,115 @@
         <f t="shared" si="39"/>
         <v>9</v>
       </c>
-      <c r="CG16" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CH16" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CI16" s="19" t="s">
+      <c r="CG16" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH16" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CI16" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="CJ16" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CK16" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CL16" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CM16" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CN16" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CO16" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CP16" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CQ16" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CR16" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CS16" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CT16" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CU16" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CV16" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CW16" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CX16" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CY16" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CZ16" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DA16" s="19" t="s">
+      <c r="CJ16" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CK16" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CL16" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CM16" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CN16" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CO16" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CP16" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CQ16" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CR16" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CS16" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CT16" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CU16" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CV16" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CW16" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CX16" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CY16" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CZ16" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DA16" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="DB16" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DC16" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DD16" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DE16" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DF16" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG16" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DH16" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DI16" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DJ16" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DK16" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DL16" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DM16" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DN16" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DO16" s="19">
+      <c r="DB16" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DC16" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DD16" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DE16" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF16" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG16" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DH16" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DI16" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DJ16" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DK16" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DL16" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DM16" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DN16" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DO16" s="13">
         <v>7</v>
       </c>
-      <c r="DP16" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DQ16" s="19">
+      <c r="DP16" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DQ16" s="13">
         <v>9</v>
       </c>
       <c r="DS16" t="str">
@@ -9370,115 +9451,115 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="CG17" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CH17" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CI17" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CJ17" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CK17" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CL17" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CM17" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CN17" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CO17" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CP17" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CQ17" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CR17" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CS17" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CT17" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CU17" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CV17" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CW17" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CX17" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CY17" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CZ17" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DA17" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DB17" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DC17" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DD17" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DE17" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DF17" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG17" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DH17" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DI17" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DJ17" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DK17" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DL17" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DM17" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DN17" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DO17" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DP17" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DQ17" s="19" t="s">
+      <c r="CG17" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH17" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CI17" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CJ17" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CK17" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CL17" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CM17" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CN17" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CO17" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CP17" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CQ17" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CR17" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CS17" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CT17" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CU17" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CV17" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CW17" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CX17" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CY17" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CZ17" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DA17" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DB17" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DC17" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DD17" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DE17" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF17" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG17" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DH17" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DI17" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DJ17" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DK17" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DL17" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DM17" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DN17" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DO17" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DP17" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DQ17" s="13" t="s">
         <v>108</v>
       </c>
       <c r="DS17" t="str">
@@ -9807,115 +9888,115 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="CG18" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CH18" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CI18" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CJ18" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CK18" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CL18" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CM18" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CN18" s="19" t="s">
+      <c r="CG18" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH18" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CI18" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CJ18" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CK18" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CL18" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CM18" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CN18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="CO18" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CP18" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CQ18" s="19" t="s">
+      <c r="CO18" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CP18" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CQ18" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="CR18" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CS18" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CT18" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CU18" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CV18" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CW18" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CX18" s="19" t="s">
+      <c r="CR18" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CS18" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CT18" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CU18" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CV18" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CW18" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CX18" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="CY18" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CZ18" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DA18" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DB18" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DC18" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DD18" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DE18" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DF18" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG18" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DH18" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DI18" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DJ18" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DK18" s="19">
+      <c r="CY18" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CZ18" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DA18" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DB18" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DC18" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DD18" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DE18" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF18" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG18" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DH18" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DI18" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DJ18" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DK18" s="13">
         <v>3</v>
       </c>
-      <c r="DL18" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DM18" s="19">
+      <c r="DL18" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DM18" s="13">
         <v>5</v>
       </c>
-      <c r="DN18" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DO18" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DP18" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DQ18" s="19" t="s">
+      <c r="DN18" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DO18" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DP18" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DQ18" s="13" t="s">
         <v>108</v>
       </c>
       <c r="DS18" t="str">
@@ -10244,115 +10325,115 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="CG19" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CH19" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CI19" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CJ19" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CK19" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CL19" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CM19" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CN19" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CO19" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CP19" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CQ19" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CR19" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CS19" s="19" t="s">
+      <c r="CG19" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH19" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CI19" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CJ19" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CK19" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CL19" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CM19" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CN19" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CO19" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CP19" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CQ19" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CR19" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CS19" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="CT19" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CU19" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CV19" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CW19" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CX19" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CY19" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CZ19" s="19" t="s">
+      <c r="CT19" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CU19" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CV19" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CW19" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CX19" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CY19" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CZ19" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="DA19" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DB19" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DC19" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DD19" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DE19" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DF19" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG19" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DH19" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DI19" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DJ19" s="19">
+      <c r="DA19" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DB19" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DC19" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DD19" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DE19" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF19" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG19" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DH19" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DI19" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DJ19" s="13">
         <v>2</v>
       </c>
-      <c r="DK19" s="19">
+      <c r="DK19" s="13">
         <v>3</v>
       </c>
-      <c r="DL19" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DM19" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DN19" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DO19" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DP19" s="19">
+      <c r="DL19" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DM19" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DN19" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DO19" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DP19" s="13">
         <v>8</v>
       </c>
-      <c r="DQ19" s="19" t="s">
+      <c r="DQ19" s="13" t="s">
         <v>108</v>
       </c>
       <c r="DS19" t="str">
@@ -10681,115 +10762,115 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="CG20" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CH20" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CI20" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CJ20" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CK20" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CL20" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CM20" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CN20" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CO20" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CP20" s="19" t="s">
+      <c r="CG20" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH20" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CI20" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CJ20" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CK20" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CL20" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CM20" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CN20" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CO20" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CP20" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="CQ20" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CR20" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CS20" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CT20" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CU20" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CV20" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CW20" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CX20" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CY20" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CZ20" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DA20" s="19" t="s">
+      <c r="CQ20" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CR20" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CS20" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CT20" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CU20" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CV20" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CW20" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CX20" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CY20" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CZ20" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DA20" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="DB20" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DC20" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DD20" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DE20" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DF20" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG20" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DH20" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DI20" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DJ20" s="19">
+      <c r="DB20" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DC20" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DD20" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DE20" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF20" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG20" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DH20" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DI20" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DJ20" s="13">
         <v>2</v>
       </c>
-      <c r="DK20" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DL20" s="19">
+      <c r="DK20" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DL20" s="13">
         <v>4</v>
       </c>
-      <c r="DM20" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DN20" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DO20" s="19">
+      <c r="DM20" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DN20" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DO20" s="13">
         <v>7</v>
       </c>
-      <c r="DP20" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DQ20" s="19" t="s">
+      <c r="DP20" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DQ20" s="13" t="s">
         <v>108</v>
       </c>
       <c r="DS20" t="str">
@@ -11118,115 +11199,115 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="CG21" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CH21" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CI21" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CJ21" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CK21" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CL21" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CM21" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CN21" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CO21" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CP21" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CQ21" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CR21" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CS21" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CT21" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CU21" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CV21" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CW21" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CX21" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CY21" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CZ21" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DA21" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DB21" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DC21" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DD21" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DE21" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DF21" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG21" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DH21" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DI21" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DJ21" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DK21" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DL21" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DM21" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DN21" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DO21" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DP21" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DQ21" s="19" t="s">
+      <c r="CG21" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH21" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CI21" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CJ21" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CK21" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CL21" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CM21" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CN21" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CO21" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CP21" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CQ21" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CR21" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CS21" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CT21" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CU21" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CV21" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CW21" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CX21" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CY21" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CZ21" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DA21" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DB21" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DC21" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DD21" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DE21" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF21" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG21" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DH21" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DI21" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DJ21" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DK21" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DL21" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DM21" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DN21" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DO21" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DP21" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DQ21" s="13" t="s">
         <v>108</v>
       </c>
       <c r="DS21" t="str">
@@ -11555,115 +11636,115 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="CG22" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CH22" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CI22" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CJ22" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CK22" s="19" t="s">
+      <c r="CG22" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH22" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CI22" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CJ22" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CK22" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="CL22" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CM22" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CN22" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CO22" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CP22" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CQ22" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CR22" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CS22" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CT22" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CU22" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CV22" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CW22" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CX22" s="19" t="s">
+      <c r="CL22" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CM22" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CN22" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CO22" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CP22" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CQ22" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CR22" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CS22" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CT22" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CU22" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CV22" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CW22" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CX22" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="CY22" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CZ22" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DA22" s="19" t="s">
+      <c r="CY22" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CZ22" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DA22" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="DB22" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DC22" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DD22" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DE22" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DF22" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG22" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DH22" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DI22" s="19">
+      <c r="DB22" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DC22" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DD22" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DE22" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF22" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG22" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DH22" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DI22" s="13">
         <v>1</v>
       </c>
-      <c r="DJ22" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DK22" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DL22" s="19">
+      <c r="DJ22" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DK22" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DL22" s="13">
         <v>4</v>
       </c>
-      <c r="DM22" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DN22" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DO22" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DP22" s="19">
+      <c r="DM22" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DN22" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DO22" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DP22" s="13">
         <v>8</v>
       </c>
-      <c r="DQ22" s="19" t="s">
+      <c r="DQ22" s="13" t="s">
         <v>108</v>
       </c>
       <c r="DS22" t="str">
@@ -11992,115 +12073,115 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="CG23" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CH23" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CI23" s="19" t="s">
+      <c r="CG23" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH23" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CI23" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="CJ23" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CK23" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CL23" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CM23" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CN23" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CO23" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CP23" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CQ23" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CR23" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CS23" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CT23" s="19" t="s">
+      <c r="CJ23" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CK23" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CL23" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CM23" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CN23" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CO23" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CP23" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CQ23" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CR23" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CS23" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CT23" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="CU23" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CV23" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CW23" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CX23" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CY23" s="19" t="s">
+      <c r="CU23" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CV23" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CW23" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CX23" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CY23" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="CZ23" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DA23" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DB23" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DC23" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DD23" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DE23" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DF23" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG23" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DH23" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DI23" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DJ23" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DK23" s="19">
+      <c r="CZ23" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DA23" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DB23" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DC23" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DD23" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DE23" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF23" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG23" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DH23" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DI23" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DJ23" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DK23" s="13">
         <v>3</v>
       </c>
-      <c r="DL23" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DM23" s="19">
+      <c r="DL23" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DM23" s="13">
         <v>5</v>
       </c>
-      <c r="DN23" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DO23" s="19">
+      <c r="DN23" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DO23" s="13">
         <v>7</v>
       </c>
-      <c r="DP23" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DQ23" s="19" t="s">
+      <c r="DP23" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DQ23" s="13" t="s">
         <v>108</v>
       </c>
       <c r="DS23" t="str">
@@ -12429,115 +12510,115 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="CG24" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CH24" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CI24" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CJ24" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CK24" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CL24" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CM24" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CN24" s="19" t="s">
+      <c r="CG24" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH24" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CI24" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CJ24" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CK24" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CL24" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CM24" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CN24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="CO24" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CP24" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CQ24" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CR24" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CS24" s="19" t="s">
+      <c r="CO24" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CP24" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CQ24" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CR24" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CS24" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="CT24" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CU24" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CV24" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CW24" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CX24" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CY24" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CZ24" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DA24" s="19" t="s">
+      <c r="CT24" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CU24" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CV24" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CW24" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CX24" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CY24" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CZ24" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DA24" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="DB24" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DC24" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DD24" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DE24" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DF24" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG24" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DH24" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DI24" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DJ24" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DK24" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DL24" s="19">
+      <c r="DB24" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DC24" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DD24" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DE24" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF24" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG24" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DH24" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DI24" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DJ24" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DK24" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DL24" s="13">
         <v>4</v>
       </c>
-      <c r="DM24" s="19">
+      <c r="DM24" s="13">
         <v>5</v>
       </c>
-      <c r="DN24" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DO24" s="19">
+      <c r="DN24" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DO24" s="13">
         <v>7</v>
       </c>
-      <c r="DP24" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DQ24" s="19" t="s">
+      <c r="DP24" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DQ24" s="13" t="s">
         <v>108</v>
       </c>
       <c r="DS24" t="str">
@@ -12866,115 +12947,115 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="CG25" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CH25" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CI25" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CJ25" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CK25" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CL25" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CM25" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CN25" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CO25" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CP25" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CQ25" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CR25" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CS25" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CT25" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CU25" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CV25" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CW25" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CX25" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CY25" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CZ25" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DA25" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DB25" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DC25" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DD25" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DE25" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DF25" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG25" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DH25" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DI25" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DJ25" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DK25" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DL25" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DM25" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DN25" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DO25" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DP25" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DQ25" s="19" t="s">
+      <c r="CG25" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH25" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CI25" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CJ25" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CK25" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CL25" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CM25" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CN25" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CO25" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CP25" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CQ25" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CR25" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CS25" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CT25" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CU25" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CV25" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CW25" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CX25" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CY25" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CZ25" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DA25" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DB25" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DC25" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DD25" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DE25" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF25" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG25" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DH25" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DI25" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DJ25" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DK25" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DL25" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DM25" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DN25" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DO25" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DP25" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DQ25" s="13" t="s">
         <v>108</v>
       </c>
       <c r="DS25" t="str">
@@ -13303,115 +13384,115 @@
         <f t="shared" si="39"/>
         <v>9</v>
       </c>
-      <c r="CG26" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CH26" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CI26" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CJ26" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CK26" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CL26" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CM26" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CN26" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CO26" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CP26" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CQ26" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CR26" s="19" t="s">
+      <c r="CG26" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH26" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CI26" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CJ26" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CK26" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CL26" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CM26" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CN26" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CO26" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CP26" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CQ26" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CR26" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="CS26" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CT26" s="19" t="s">
+      <c r="CS26" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CT26" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="CU26" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CV26" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CW26" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CX26" s="19" t="s">
+      <c r="CU26" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CV26" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CW26" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CX26" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="CY26" s="19" t="s">
+      <c r="CY26" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="CZ26" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DA26" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DB26" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DC26" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DD26" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DE26" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DF26" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG26" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DH26" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DI26" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DJ26" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DK26" s="19">
+      <c r="CZ26" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DA26" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DB26" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DC26" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DD26" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DE26" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF26" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG26" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DH26" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DI26" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DJ26" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DK26" s="13">
         <v>3</v>
       </c>
-      <c r="DL26" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DM26" s="19">
+      <c r="DL26" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DM26" s="13">
         <v>5</v>
       </c>
-      <c r="DN26" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DO26" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DP26" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DQ26" s="19">
+      <c r="DN26" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DO26" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DP26" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DQ26" s="13">
         <v>9</v>
       </c>
       <c r="DS26" t="str">
@@ -13740,115 +13821,115 @@
         <f t="shared" si="39"/>
         <v>9</v>
       </c>
-      <c r="CG27" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CH27" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CI27" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CJ27" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CK27" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CL27" s="19" t="s">
+      <c r="CG27" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH27" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CI27" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CJ27" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CK27" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CL27" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="CM27" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CN27" s="19" t="s">
+      <c r="CM27" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CN27" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="CO27" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CP27" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CQ27" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CR27" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CS27" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CT27" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CU27" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CV27" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CW27" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CX27" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CY27" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CZ27" s="19" t="s">
+      <c r="CO27" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CP27" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CQ27" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CR27" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CS27" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CT27" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CU27" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CV27" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CW27" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CX27" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CY27" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CZ27" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="DA27" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DB27" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DC27" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DD27" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DE27" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DF27" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG27" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DH27" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DI27" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DJ27" s="19">
+      <c r="DA27" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DB27" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DC27" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DD27" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DE27" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF27" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG27" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DH27" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DI27" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DJ27" s="13">
         <v>2</v>
       </c>
-      <c r="DK27" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DL27" s="19">
+      <c r="DK27" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DL27" s="13">
         <v>4</v>
       </c>
-      <c r="DM27" s="19">
+      <c r="DM27" s="13">
         <v>5</v>
       </c>
-      <c r="DN27" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DO27" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DP27" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DQ27" s="19">
+      <c r="DN27" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DO27" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DP27" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DQ27" s="13">
         <v>9</v>
       </c>
       <c r="DS27" t="str">
@@ -14177,115 +14258,115 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="CG28" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CH28" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CI28" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CJ28" s="19" t="s">
+      <c r="CG28" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH28" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CI28" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CJ28" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="CK28" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CL28" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CM28" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CN28" s="19" t="s">
+      <c r="CK28" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CL28" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CM28" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CN28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="CO28" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CP28" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CQ28" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CR28" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CS28" s="19" t="s">
+      <c r="CO28" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CP28" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CQ28" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CR28" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CS28" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="CT28" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CU28" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CV28" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CW28" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CX28" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CY28" s="19" t="s">
+      <c r="CT28" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CU28" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CV28" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CW28" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CX28" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CY28" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="CZ28" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DA28" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DB28" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DC28" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DD28" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DE28" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DF28" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG28" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DH28" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DI28" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DJ28" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DK28" s="19">
+      <c r="CZ28" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DA28" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DB28" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DC28" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DD28" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DE28" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF28" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG28" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DH28" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DI28" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DJ28" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DK28" s="13">
         <v>3</v>
       </c>
-      <c r="DL28" s="19">
+      <c r="DL28" s="13">
         <v>4</v>
       </c>
-      <c r="DM28" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DN28" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DO28" s="19">
+      <c r="DM28" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DN28" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DO28" s="13">
         <v>7</v>
       </c>
-      <c r="DP28" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DQ28" s="19" t="s">
+      <c r="DP28" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DQ28" s="13" t="s">
         <v>108</v>
       </c>
       <c r="DS28" t="str">
@@ -14614,115 +14695,115 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="CG29" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CH29" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CI29" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CJ29" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CK29" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CL29" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CM29" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CN29" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CO29" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CP29" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CQ29" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CR29" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CS29" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CT29" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CU29" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CV29" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CW29" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CX29" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CY29" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CZ29" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DA29" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DB29" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DC29" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DD29" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DE29" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DF29" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG29" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DH29" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DI29" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DJ29" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DK29" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DL29" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DM29" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DN29" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DO29" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DP29" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DQ29" s="19" t="s">
+      <c r="CG29" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH29" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CI29" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CJ29" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CK29" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CL29" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CM29" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CN29" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CO29" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CP29" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CQ29" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CR29" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CS29" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CT29" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CU29" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CV29" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CW29" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CX29" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CY29" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CZ29" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DA29" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DB29" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DC29" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DD29" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DE29" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF29" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG29" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DH29" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DI29" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DJ29" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DK29" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DL29" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DM29" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DN29" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DO29" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DP29" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DQ29" s="13" t="s">
         <v>108</v>
       </c>
       <c r="DS29" t="str">
@@ -15051,115 +15132,115 @@
         <f t="shared" si="39"/>
         <v>9</v>
       </c>
-      <c r="CG30" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CH30" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CI30" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CJ30" s="19" t="s">
+      <c r="CG30" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH30" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CI30" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CJ30" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="CK30" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CL30" s="19" t="s">
+      <c r="CK30" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CL30" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="CM30" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CN30" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CO30" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CP30" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CQ30" s="19" t="s">
+      <c r="CM30" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CN30" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CO30" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CP30" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CQ30" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="CR30" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CS30" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CT30" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CU30" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CV30" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CW30" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CX30" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CY30" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CZ30" s="19" t="s">
+      <c r="CR30" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CS30" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CT30" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CU30" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CV30" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CW30" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CX30" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CY30" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CZ30" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="DA30" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DB30" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DC30" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DD30" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DE30" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DF30" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG30" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DH30" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DI30" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DJ30" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DK30" s="19">
+      <c r="DA30" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DB30" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DC30" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DD30" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DE30" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF30" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG30" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DH30" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DI30" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DJ30" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DK30" s="13">
         <v>3</v>
       </c>
-      <c r="DL30" s="19">
+      <c r="DL30" s="13">
         <v>4</v>
       </c>
-      <c r="DM30" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DN30" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DO30" s="19">
+      <c r="DM30" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DN30" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DO30" s="13">
         <v>7</v>
       </c>
-      <c r="DP30" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DQ30" s="19">
+      <c r="DP30" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DQ30" s="13">
         <v>9</v>
       </c>
       <c r="DS30" t="str">
@@ -15488,115 +15569,115 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="CG31" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CH31" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CI31" s="19" t="s">
+      <c r="CG31" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH31" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CI31" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="CJ31" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CK31" s="19" t="s">
+      <c r="CJ31" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CK31" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="CL31" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CM31" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CN31" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CO31" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CP31" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CQ31" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CR31" s="19" t="s">
+      <c r="CL31" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CM31" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CN31" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CO31" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CP31" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CQ31" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CR31" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="CS31" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CT31" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CU31" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CV31" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CW31" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CX31" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CY31" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CZ31" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DA31" s="19" t="s">
+      <c r="CS31" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CT31" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CU31" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CV31" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CW31" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CX31" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CY31" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CZ31" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DA31" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="DB31" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DC31" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DD31" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DE31" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DF31" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG31" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DH31" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DI31" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DJ31" s="19">
+      <c r="DB31" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DC31" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DD31" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DE31" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF31" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG31" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DH31" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DI31" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DJ31" s="13">
         <v>2</v>
       </c>
-      <c r="DK31" s="19">
+      <c r="DK31" s="13">
         <v>3</v>
       </c>
-      <c r="DL31" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DM31" s="19">
+      <c r="DL31" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DM31" s="13">
         <v>5</v>
       </c>
-      <c r="DN31" s="19">
+      <c r="DN31" s="13">
         <v>6</v>
       </c>
-      <c r="DO31" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DP31" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DQ31" s="19" t="s">
+      <c r="DO31" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DP31" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DQ31" s="13" t="s">
         <v>108</v>
       </c>
       <c r="DS31" t="str">
@@ -15925,115 +16006,115 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="CG32" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CH32" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CI32" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CJ32" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CK32" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CL32" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CM32" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CN32" s="19" t="s">
+      <c r="CG32" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH32" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CI32" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CJ32" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CK32" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CL32" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CM32" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CN32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="CO32" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CP32" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CQ32" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CR32" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CS32" s="19" t="s">
+      <c r="CO32" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CP32" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CQ32" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CR32" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CS32" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="CT32" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CU32" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CV32" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CW32" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CX32" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CY32" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="CZ32" s="19" t="s">
+      <c r="CT32" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CU32" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CV32" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CW32" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CX32" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CY32" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CZ32" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="DA32" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DB32" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DC32" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DD32" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DE32" s="19" t="s">
+      <c r="DA32" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DB32" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DC32" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DD32" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DE32" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="DF32" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG32" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DH32" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DI32" s="19">
+      <c r="DF32" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG32" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DH32" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DI32" s="13">
         <v>1</v>
       </c>
-      <c r="DJ32" s="19">
+      <c r="DJ32" s="13">
         <v>2</v>
       </c>
-      <c r="DK32" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DL32" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DM32" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DN32" s="19">
+      <c r="DK32" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DL32" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DM32" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DN32" s="13">
         <v>6</v>
       </c>
-      <c r="DO32" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="DP32" s="19">
+      <c r="DO32" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DP32" s="13">
         <v>8</v>
       </c>
-      <c r="DQ32" s="19" t="s">
+      <c r="DQ32" s="13" t="s">
         <v>108</v>
       </c>
       <c r="DS32" t="str">
